--- a/MR_ScoringTest/mary test data.xlsx
+++ b/MR_ScoringTest/mary test data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26700" yWindow="-80" windowWidth="35120" windowHeight="20280" tabRatio="500"/>
+    <workbookView xWindow="26700" yWindow="-75" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>MR.L4.area.cm2</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -170,18 +170,15 @@
   <si>
     <t>MR.L4.length.cm</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -245,6 +242,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -569,47 +571,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AF5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1134,6 +1136,11 @@
       </c>
       <c r="AF5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="R9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
